--- a/table_4_125.xlsx
+++ b/table_4_125.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gulbeyaz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\E-Source\014-Bilimsel Calismalar\YAYINLAR\2025\05-Mert_yl_Tez_makale\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,19 +26,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Ra</t>
+    <t>Ra* (unitless)</t>
   </si>
   <si>
-    <t>Tm</t>
+    <t>Tm* (unitless)</t>
   </si>
   <si>
-    <t>Vc</t>
+    <t>Vc (rpm)</t>
   </si>
   <si>
-    <t>ap</t>
+    <t>ap (mm)</t>
   </si>
   <si>
-    <t>Vf</t>
+    <t>Vf (mm/rev)</t>
   </si>
 </sst>
 </file>
@@ -410,7 +410,7 @@
   <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
